--- a/regression/Sales_Marketing_Data_transformation.xlsx
+++ b/regression/Sales_Marketing_Data_transformation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26310"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__DSM_LMS_Courses\5_4_Predictive_Supervised\L0 Intuition with Excel\1_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\apps\UNEXT_PythonDashboard_Streamlit\regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4982A440-5938-44B9-A211-F42417AFA92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA626C7D-2E73-47D7-AC8B-DDF0B00B4E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Marketing_Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,20 @@
     <definedName name="sales">Sales_Marketing_Data!$B$2:$B$1048576</definedName>
     <definedName name="youtube">Sales_Marketing_Data!$C$2:$C$1048576</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -671,7 +684,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1488,15 +1501,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="9" max="11" width="8.88671875" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1556,7 +1570,7 @@
         <v>2.4426678703372526</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:I2" si="0">LOG10(D2+1)</f>
+        <f t="shared" ref="G2:H2" si="0">LOG10(D2+1)</f>
         <v>1.6661434272915583</v>
       </c>
       <c r="H2">
@@ -1613,14 +1627,14 @@
         <v>1.2263901354815386E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="J2:K17" si="6">_xlfn.NORM.DIST(E3,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
+        <f t="shared" ref="K3:K17" si="6">_xlfn.NORM.DIST(E3,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
         <v>1.911446030124169E-3</v>
       </c>
       <c r="N3" t="s">
         <v>2</v>
       </c>
       <c r="O3">
-        <f ca="1">PEARSON(sales,INDIRECT(N3))</f>
+        <f t="shared" ref="O3:O11" ca="1" si="7">PEARSON(sales,INDIRECT(N3))</f>
         <v>0.78222442486160648</v>
       </c>
     </row>
@@ -1668,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="O4">
-        <f ca="1">PEARSON(sales,INDIRECT(N4))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.59873891696495241</v>
       </c>
     </row>
@@ -1716,7 +1730,7 @@
         <v>4</v>
       </c>
       <c r="O5">
-        <f ca="1">PEARSON(sales,INDIRECT(N5))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.2282990263761652</v>
       </c>
     </row>
@@ -1764,7 +1778,7 @@
         <v>205</v>
       </c>
       <c r="O6">
-        <f ca="1">PEARSON(sales,INDIRECT(N6))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.75768485415047293</v>
       </c>
     </row>
@@ -1812,7 +1826,7 @@
         <v>206</v>
       </c>
       <c r="O7">
-        <f ca="1">PEARSON(sales,INDIRECT(N7))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.55015594214181374</v>
       </c>
     </row>
@@ -1860,7 +1874,7 @@
         <v>207</v>
       </c>
       <c r="O8">
-        <f ca="1">PEARSON(sales,INDIRECT(N8))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.16306239046264318</v>
       </c>
     </row>
@@ -1908,7 +1922,7 @@
         <v>208</v>
       </c>
       <c r="O9">
-        <f ca="1">PEARSON(sales,INDIRECT(N9))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.1370775378542505</v>
       </c>
     </row>
@@ -1956,7 +1970,7 @@
         <v>209</v>
       </c>
       <c r="O10">
-        <f ca="1">PEARSON(sales,INDIRECT(N10))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>-6.5866673883365895E-2</v>
       </c>
     </row>
@@ -2004,7 +2018,7 @@
         <v>210</v>
       </c>
       <c r="O11">
-        <f ca="1">PEARSON(sales,INDIRECT(N11))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.239505208966723</v>
       </c>
     </row>
@@ -2291,7 +2305,7 @@
         <v>1.4746402706542358E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:K81" si="7">_xlfn.NORM.DIST(E18,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
+        <f t="shared" ref="K18:K81" si="8">_xlfn.NORM.DIST(E18,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
         <v>3.6035406913036711E-3</v>
       </c>
     </row>
@@ -2332,7 +2346,7 @@
         <v>1.1990566708007598E-2</v>
       </c>
       <c r="K19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.200715728496071E-3</v>
       </c>
     </row>
@@ -2373,7 +2387,7 @@
         <v>2.2157218516182384E-2</v>
       </c>
       <c r="K20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2540513810948143E-3</v>
       </c>
     </row>
@@ -2414,7 +2428,7 @@
         <v>2.244133211883452E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2717309952273411E-3</v>
       </c>
     </row>
@@ -2455,7 +2469,7 @@
         <v>2.1382846193624402E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1351392606985633E-3</v>
       </c>
     </row>
@@ -2496,7 +2510,7 @@
         <v>1.0788702849569566E-2</v>
       </c>
       <c r="K23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.371378754759548E-3</v>
       </c>
     </row>
@@ -2537,7 +2551,7 @@
         <v>2.0021093953478016E-2</v>
       </c>
       <c r="K24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0320164562679264E-3</v>
       </c>
     </row>
@@ -2578,7 +2592,7 @@
         <v>2.0636386670041543E-2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4344779825443989E-3</v>
       </c>
     </row>
@@ -2619,7 +2633,7 @@
         <v>1.7539464361352512E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2540513810948143E-3</v>
       </c>
     </row>
@@ -2660,7 +2674,7 @@
         <v>9.4078046873748607E-3</v>
       </c>
       <c r="K27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2806221439144267E-3</v>
       </c>
     </row>
@@ -2701,7 +2715,7 @@
         <v>2.054240574829495E-2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1321367520475212E-3</v>
       </c>
     </row>
@@ -2742,7 +2756,7 @@
         <v>2.051933871254116E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.357554756669252E-3</v>
       </c>
     </row>
@@ -2783,7 +2797,7 @@
         <v>2.164138881423586E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.357554756669252E-3</v>
       </c>
     </row>
@@ -2824,7 +2838,7 @@
         <v>2.0085921255172844E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7982794067186256E-3</v>
       </c>
     </row>
@@ -2865,7 +2879,7 @@
         <v>2.1092641061372729E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.861168092200612E-3</v>
       </c>
     </row>
@@ -2906,7 +2920,7 @@
         <v>2.0915192214703015E-2</v>
       </c>
       <c r="K33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7412981836013154E-3</v>
       </c>
     </row>
@@ -2947,7 +2961,7 @@
         <v>7.7980816199514757E-3</v>
       </c>
       <c r="K34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5256620494673008E-3</v>
       </c>
     </row>
@@ -2988,7 +3002,7 @@
         <v>2.2017359132314712E-2</v>
       </c>
       <c r="K35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.9432977734762087E-4</v>
       </c>
     </row>
@@ -3029,7 +3043,7 @@
         <v>7.7215453807344134E-3</v>
       </c>
       <c r="K36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0273074786660318E-3</v>
       </c>
     </row>
@@ -3070,7 +3084,7 @@
         <v>9.9172080265298515E-3</v>
       </c>
       <c r="K37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0489639774778185E-3</v>
       </c>
     </row>
@@ -3111,7 +3125,7 @@
         <v>8.3758239358776038E-3</v>
       </c>
       <c r="K38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.8103431534322418E-4</v>
       </c>
     </row>
@@ -3152,7 +3166,7 @@
         <v>4.5791419253875401E-3</v>
       </c>
       <c r="K39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.927406622048289E-3</v>
       </c>
     </row>
@@ -3193,7 +3207,7 @@
         <v>2.1795542628570981E-2</v>
       </c>
       <c r="K40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6520955384556344E-3</v>
       </c>
     </row>
@@ -3234,7 +3248,7 @@
         <v>1.3734653651348067E-2</v>
       </c>
       <c r="K41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5747131265977149E-3</v>
       </c>
     </row>
@@ -3275,7 +3289,7 @@
         <v>2.2454553343157237E-2</v>
       </c>
       <c r="K42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.564846619120036E-3</v>
       </c>
     </row>
@@ -3316,7 +3330,7 @@
         <v>1.7572025258230612E-2</v>
       </c>
       <c r="K43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7438735961503118E-3</v>
       </c>
     </row>
@@ -3357,7 +3371,7 @@
         <v>2.1382846193624402E-2</v>
       </c>
       <c r="K44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.2143624263719439E-4</v>
       </c>
     </row>
@@ -3398,7 +3412,7 @@
         <v>1.379089453223294E-2</v>
       </c>
       <c r="K45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4392089797262537E-3</v>
       </c>
     </row>
@@ -3439,7 +3453,7 @@
         <v>2.2114846595174736E-2</v>
       </c>
       <c r="K46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8638038917269076E-3</v>
       </c>
     </row>
@@ -3480,7 +3494,7 @@
         <v>2.24672789364407E-2</v>
       </c>
       <c r="K47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5623843409525091E-3</v>
       </c>
     </row>
@@ -3521,7 +3535,7 @@
         <v>1.516729690487372E-2</v>
       </c>
       <c r="K48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6672539687996525E-3</v>
       </c>
     </row>
@@ -3562,7 +3576,7 @@
         <v>1.0296568316592243E-2</v>
       </c>
       <c r="K49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2584584033946953E-3</v>
       </c>
     </row>
@@ -3603,7 +3617,7 @@
         <v>1.9955563339160549E-2</v>
       </c>
       <c r="K50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0401194550525551E-3</v>
       </c>
     </row>
@@ -3644,7 +3658,7 @@
         <v>1.677215558019118E-2</v>
       </c>
       <c r="K51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6951904454710104E-3</v>
       </c>
     </row>
@@ -3685,7 +3699,7 @@
         <v>9.0745205075663266E-3</v>
       </c>
       <c r="K52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6395073680175946E-3</v>
       </c>
     </row>
@@ -3726,7 +3740,7 @@
         <v>1.4893696689916011E-2</v>
       </c>
       <c r="K53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.5466398329922234E-4</v>
       </c>
     </row>
@@ -3767,7 +3781,7 @@
         <v>1.0123078316874782E-2</v>
       </c>
       <c r="K54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7671159669120085E-3</v>
       </c>
     </row>
@@ -3808,7 +3822,7 @@
         <v>6.5805692084952294E-3</v>
       </c>
       <c r="K55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2802561940643115E-3</v>
       </c>
     </row>
@@ -3849,7 +3863,7 @@
         <v>2.0827606970535109E-2</v>
       </c>
       <c r="K56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2018441828206732E-3</v>
       </c>
     </row>
@@ -3890,7 +3904,7 @@
         <v>4.5791419253875401E-3</v>
       </c>
       <c r="K57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3159771102724729E-3</v>
       </c>
     </row>
@@ -3931,7 +3945,7 @@
         <v>2.1192811858566949E-2</v>
       </c>
       <c r="K58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8139330524123691E-3</v>
       </c>
     </row>
@@ -3972,7 +3986,7 @@
         <v>2.1743653598624429E-2</v>
       </c>
       <c r="K59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2169413711277063E-3</v>
       </c>
     </row>
@@ -4013,7 +4027,7 @@
         <v>4.4695770537991845E-3</v>
       </c>
       <c r="K60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7181845276221343E-3</v>
       </c>
     </row>
@@ -4054,7 +4068,7 @@
         <v>2.0422883491728595E-2</v>
       </c>
       <c r="K61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.064890007513613E-3</v>
       </c>
     </row>
@@ -4095,7 +4109,7 @@
         <v>8.186676486206499E-3</v>
       </c>
       <c r="K62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3233171394714314E-3</v>
       </c>
     </row>
@@ -4136,7 +4150,7 @@
         <v>9.2730264142165311E-3</v>
       </c>
       <c r="K63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1706251069699236E-3</v>
       </c>
     </row>
@@ -4177,7 +4191,7 @@
         <v>1.9754834809921774E-2</v>
       </c>
       <c r="K64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4605937169995696E-3</v>
       </c>
     </row>
@@ -4218,7 +4232,7 @@
         <v>2.0361986690965721E-2</v>
       </c>
       <c r="K65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.046983620492151E-3</v>
       </c>
     </row>
@@ -4259,7 +4273,7 @@
         <v>9.1897386563989658E-3</v>
       </c>
       <c r="K66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4989897839342312E-3</v>
       </c>
     </row>
@@ -4280,27 +4294,27 @@
         <v>1.08</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="8">LOG10(C67+1)</f>
+        <f t="shared" ref="F67:F130" si="9">LOG10(C67+1)</f>
         <v>1.9232440186302764</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="9">LOG10(D67+1)</f>
+        <f t="shared" ref="G67:G130" si="10">LOG10(D67+1)</f>
         <v>1.0849335749367162</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="10">LOG10(E67+1)</f>
+        <f t="shared" ref="H67:H130" si="11">LOG10(E67+1)</f>
         <v>0.31806333496276157</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="11">_xlfn.NORM.DIST(C67,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
+        <f t="shared" ref="I67:I130" si="12">_xlfn.NORM.DIST(C67,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
         <v>2.5628586943400402E-3</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="12">_xlfn.NORM.DIST(D67,AVERAGE($D$2:$D$201),_xlfn.STDEV.P($D$2:$D$201),FALSE)</f>
+        <f t="shared" ref="J67:J130" si="13">_xlfn.NORM.DIST(D67,AVERAGE($D$2:$D$201),_xlfn.STDEV.P($D$2:$D$201),FALSE)</f>
         <v>1.4619014219203377E-2</v>
       </c>
       <c r="K67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.0510865760620534E-4</v>
       </c>
     </row>
@@ -4321,27 +4335,27 @@
         <v>2.64</v>
       </c>
       <c r="F68">
+        <f t="shared" si="9"/>
+        <v>1.5888317255942073</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="10"/>
+        <v>1.4845845292828428</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="11"/>
+        <v>0.56110138364905604</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="12"/>
+        <v>1.5623843409525091E-3</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="13"/>
+        <v>2.2353115062920984E-2</v>
+      </c>
+      <c r="K68">
         <f t="shared" si="8"/>
-        <v>1.5888317255942073</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="9"/>
-        <v>1.4845845292828428</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="10"/>
-        <v>0.56110138364905604</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="11"/>
-        <v>1.5623843409525091E-3</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="12"/>
-        <v>2.2353115062920984E-2</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="7"/>
         <v>9.2875425119944206E-4</v>
       </c>
     </row>
@@ -4362,27 +4376,27 @@
         <v>12.24</v>
       </c>
       <c r="F69">
+        <f t="shared" si="9"/>
+        <v>2.2257226986841672</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="10"/>
+        <v>1.2648178230095364</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="11"/>
+        <v>1.1218879851036812</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="12"/>
+        <v>3.8661674935885799E-3</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="13"/>
+        <v>1.9043521017308062E-2</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="8"/>
-        <v>2.2257226986841672</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="9"/>
-        <v>1.2648178230095364</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="10"/>
-        <v>1.1218879851036812</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="11"/>
-        <v>3.8661674935885799E-3</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="12"/>
-        <v>1.9043521017308062E-2</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="7"/>
         <v>1.0829830299209304E-3</v>
       </c>
     </row>
@@ -4403,27 +4417,27 @@
         <v>13.2</v>
       </c>
       <c r="F70">
+        <f t="shared" si="9"/>
+        <v>2.4561837734291294</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="10"/>
+        <v>1.5314789170422551</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="11"/>
+        <v>1.1522883443830565</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="12"/>
+        <v>2.2249610491305205E-3</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="13"/>
+        <v>2.1472609252769882E-2</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="8"/>
-        <v>2.4561837734291294</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="9"/>
-        <v>1.5314789170422551</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="10"/>
-        <v>1.1522883443830565</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="11"/>
-        <v>2.2249610491305205E-3</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="12"/>
-        <v>2.1472609252769882E-2</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="7"/>
         <v>1.0992217051938047E-3</v>
       </c>
     </row>
@@ -4444,27 +4458,27 @@
         <v>32.64</v>
       </c>
       <c r="F71">
+        <f t="shared" si="9"/>
+        <v>2.4169066599324256</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="10"/>
+        <v>1.7298125071609356</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="11"/>
+        <v>1.5268559871258747</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="12"/>
+        <v>2.7859943438780978E-3</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="13"/>
+        <v>8.29642041508309E-3</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="8"/>
-        <v>2.4169066599324256</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="9"/>
-        <v>1.7298125071609356</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="10"/>
-        <v>1.5268559871258747</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="11"/>
-        <v>2.7859943438780978E-3</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="12"/>
-        <v>8.29642041508309E-3</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="7"/>
         <v>1.4582099824857555E-3</v>
       </c>
     </row>
@@ -4485,27 +4499,27 @@
         <v>46.44</v>
       </c>
       <c r="F72">
+        <f t="shared" si="9"/>
+        <v>2.3800664527514708</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="10"/>
+        <v>1.5765716840652908</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="11"/>
+        <v>1.6761446803562061</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="12"/>
+        <v>3.2271459242723594E-3</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="13"/>
+        <v>1.9713275125856473E-2</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="8"/>
-        <v>2.3800664527514708</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="9"/>
-        <v>1.5765716840652908</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="10"/>
-        <v>1.6761446803562061</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="11"/>
-        <v>3.2271459242723594E-3</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="12"/>
-        <v>1.9713275125856473E-2</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="7"/>
         <v>1.7438735961503118E-3</v>
       </c>
     </row>
@@ -4526,27 +4540,27 @@
         <v>38.04</v>
       </c>
       <c r="F73">
+        <f t="shared" si="9"/>
+        <v>2.1230672437365663</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="10"/>
+        <v>1.2591158441850663</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="11"/>
+        <v>1.5915098089946542</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="12"/>
+        <v>3.5317443885354736E-3</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="13"/>
+        <v>1.8893991149131855E-2</v>
+      </c>
+      <c r="K73">
         <f t="shared" si="8"/>
-        <v>2.1230672437365663</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="9"/>
-        <v>1.2591158441850663</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="10"/>
-        <v>1.5915098089946542</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="11"/>
-        <v>3.5317443885354736E-3</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="12"/>
-        <v>1.8893991149131855E-2</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="7"/>
         <v>1.5673106407543805E-3</v>
       </c>
     </row>
@@ -4567,27 +4581,27 @@
         <v>23.16</v>
       </c>
       <c r="F74">
+        <f t="shared" si="9"/>
+        <v>1.5206145218782359</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="10"/>
+        <v>1.608526033577194</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="11"/>
+        <v>1.3830969299490943</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="12"/>
+        <v>1.4486941312792051E-3</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="13"/>
+        <v>1.7902303542324215E-2</v>
+      </c>
+      <c r="K74">
         <f t="shared" si="8"/>
-        <v>1.5206145218782359</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="9"/>
-        <v>1.608526033577194</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="10"/>
-        <v>1.3830969299490943</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="11"/>
-        <v>1.4486941312792051E-3</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="12"/>
-        <v>1.7902303542324215E-2</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="7"/>
         <v>1.2761723065488359E-3</v>
       </c>
     </row>
@@ -4608,27 +4622,27 @@
         <v>37.56</v>
       </c>
       <c r="F75">
+        <f t="shared" si="9"/>
+        <v>2.1939034025527469</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="10"/>
+        <v>0.89431606268443842</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="11"/>
+        <v>1.5861370252307931</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="12"/>
+        <v>3.8004922942747096E-3</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="13"/>
+        <v>1.1323061626291807E-2</v>
+      </c>
+      <c r="K75">
         <f t="shared" si="8"/>
-        <v>2.1939034025527469</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="9"/>
-        <v>0.89431606268443842</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="10"/>
-        <v>1.5861370252307931</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="11"/>
-        <v>3.8004922942747096E-3</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="12"/>
-        <v>1.1323061626291807E-2</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="7"/>
         <v>1.5574650308684533E-3</v>
       </c>
     </row>
@@ -4649,27 +4663,27 @@
         <v>15.72</v>
       </c>
       <c r="F76">
+        <f t="shared" si="9"/>
+        <v>2.4100682912383622</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="10"/>
+        <v>1.4845845292828428</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="11"/>
+        <v>1.2232362731029975</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="12"/>
+        <v>2.8752956374933115E-3</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="13"/>
+        <v>2.2353115062920984E-2</v>
+      </c>
+      <c r="K76">
         <f t="shared" si="8"/>
-        <v>2.4100682912383622</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="9"/>
-        <v>1.4845845292828428</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="10"/>
-        <v>1.2232362731029975</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="11"/>
-        <v>2.8752956374933115E-3</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="12"/>
-        <v>2.2353115062920984E-2</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="7"/>
         <v>1.1425416707632492E-3</v>
       </c>
     </row>
@@ -4690,27 +4704,27 @@
         <v>107.28</v>
       </c>
       <c r="F77">
+        <f t="shared" si="9"/>
+        <v>1.3279716236230106</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="10"/>
+        <v>1.7278664494674891</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="11"/>
+        <v>2.0345482470984688</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="12"/>
+        <v>1.2234444887403279E-3</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="13"/>
+        <v>8.4556007492880333E-3</v>
+      </c>
+      <c r="K77">
         <f t="shared" si="8"/>
-        <v>1.3279716236230106</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="9"/>
-        <v>1.7278664494674891</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="10"/>
-        <v>2.0345482470984688</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="11"/>
-        <v>1.2234444887403279E-3</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="12"/>
-        <v>8.4556007492880333E-3</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="7"/>
         <v>3.0951278367598173E-3</v>
       </c>
     </row>
@@ -4731,27 +4745,27 @@
         <v>24.84</v>
       </c>
       <c r="F78">
+        <f t="shared" si="9"/>
+        <v>1.5314789170422551</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="10"/>
+        <v>0.46538285144841829</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="11"/>
+        <v>1.4122925093230465</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="12"/>
+        <v>1.465366888390645E-3</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="13"/>
+        <v>7.8750163746076005E-3</v>
+      </c>
+      <c r="K78">
         <f t="shared" si="8"/>
-        <v>1.5314789170422551</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="9"/>
-        <v>0.46538285144841829</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="10"/>
-        <v>1.4122925093230465</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="11"/>
-        <v>1.465366888390645E-3</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="12"/>
-        <v>7.8750163746076005E-3</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="7"/>
         <v>1.3074991425857773E-3</v>
       </c>
     </row>
@@ -4772,27 +4786,27 @@
         <v>17.04</v>
       </c>
       <c r="F79">
+        <f t="shared" si="9"/>
+        <v>2.1631613749770184</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="10"/>
+        <v>1.546542663478131</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="11"/>
+        <v>1.2562365332059229</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="12"/>
+        <v>3.699956760230971E-3</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="13"/>
+        <v>2.0989104251226853E-2</v>
+      </c>
+      <c r="K79">
         <f t="shared" si="8"/>
-        <v>2.1631613749770184</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="9"/>
-        <v>1.546542663478131</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="10"/>
-        <v>1.2562365332059229</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="11"/>
-        <v>3.699956760230971E-3</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="12"/>
-        <v>2.0989104251226853E-2</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="7"/>
         <v>1.1656304658801801E-3</v>
       </c>
     </row>
@@ -4813,27 +4827,27 @@
         <v>11.28</v>
       </c>
       <c r="F80">
+        <f t="shared" si="9"/>
+        <v>0.87390159786446142</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="10"/>
+        <v>1.5667909123815917</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="11"/>
+        <v>1.0891983668051488</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="12"/>
+        <v>9.8865308730038625E-4</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="13"/>
+        <v>2.0174847559621446E-2</v>
+      </c>
+      <c r="K80">
         <f t="shared" si="8"/>
-        <v>0.87390159786446142</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="9"/>
-        <v>1.5667909123815917</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="10"/>
-        <v>1.0891983668051488</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="11"/>
-        <v>9.8865308730038625E-4</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="12"/>
-        <v>2.0174847559621446E-2</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="7"/>
         <v>1.066891141831718E-3</v>
       </c>
     </row>
@@ -4854,27 +4868,27 @@
         <v>27.72</v>
       </c>
       <c r="F81">
+        <f t="shared" si="9"/>
+        <v>2.1467480136306398</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="10"/>
+        <v>1.0102999566398119</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="11"/>
+        <v>1.4581844355702627</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="12"/>
+        <v>3.6351662410888789E-3</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="13"/>
+        <v>1.3145665839866644E-2</v>
+      </c>
+      <c r="K81">
         <f t="shared" si="8"/>
-        <v>2.1467480136306398</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="9"/>
-        <v>1.0102999566398119</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="10"/>
-        <v>1.4581844355702627</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="11"/>
-        <v>3.6351662410888789E-3</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="12"/>
-        <v>1.3145665839866644E-2</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="7"/>
         <v>1.3621546319578879E-3</v>
       </c>
     </row>
@@ -4895,27 +4909,27 @@
         <v>26.76</v>
       </c>
       <c r="F82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9669860251179381</v>
       </c>
       <c r="G82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5190400386483447</v>
       </c>
       <c r="H82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4434194617828173</v>
       </c>
       <c r="I82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7624939077937091E-3</v>
       </c>
       <c r="J82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1795542628570981E-2</v>
       </c>
       <c r="K82">
-        <f t="shared" ref="K82:K145" si="13">_xlfn.NORM.DIST(E82,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
+        <f t="shared" ref="K82:K145" si="14">_xlfn.NORM.DIST(E82,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
         <v>1.3438041461885533E-3</v>
       </c>
     </row>
@@ -4936,27 +4950,27 @@
         <v>44.28</v>
       </c>
       <c r="F83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.460537033141303</v>
       </c>
       <c r="G83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.77232170672291978</v>
       </c>
       <c r="H83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.655906418180215</v>
       </c>
       <c r="I83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1592873769691705E-3</v>
       </c>
       <c r="J83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.9172080265298515E-3</v>
       </c>
       <c r="K83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6977393307575147E-3</v>
       </c>
     </row>
@@ -4977,27 +4991,27 @@
         <v>39</v>
       </c>
       <c r="F84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9607560909017727</v>
       </c>
       <c r="G84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.404149249209695</v>
       </c>
       <c r="H84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6020599913279623</v>
       </c>
       <c r="I84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7331535683398972E-3</v>
       </c>
       <c r="J84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2104200581367243E-2</v>
       </c>
       <c r="K84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5870850982999192E-3</v>
       </c>
     </row>
@@ -5018,27 +5032,27 @@
         <v>42.72</v>
       </c>
       <c r="F85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9194964878630616</v>
       </c>
       <c r="G85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7355988996981799</v>
       </c>
       <c r="H85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6406801532776651</v>
       </c>
       <c r="I85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5464854098745668E-3</v>
       </c>
       <c r="J85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.8280389419628366E-3</v>
       </c>
       <c r="K85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6647236141050471E-3</v>
       </c>
     </row>
@@ -5059,27 +5073,27 @@
         <v>40.56</v>
       </c>
       <c r="F86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4102709642521845</v>
       </c>
       <c r="G86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7209857441537391</v>
       </c>
       <c r="H86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6186755388851399</v>
       </c>
       <c r="I86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8726933427000107E-3</v>
       </c>
       <c r="J86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.0241625773373486E-3</v>
       </c>
       <c r="K86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6194506699670351E-3</v>
       </c>
     </row>
@@ -5100,27 +5114,27 @@
         <v>78.84</v>
       </c>
       <c r="F87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.367057590612843</v>
       </c>
       <c r="G87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3632358044836939</v>
       </c>
       <c r="H87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9022205282793148</v>
       </c>
       <c r="I87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.357186405395703E-3</v>
       </c>
       <c r="J87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1410599150603265E-2</v>
       </c>
       <c r="K87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.4725880929553669E-3</v>
       </c>
     </row>
@@ -5141,27 +5155,27 @@
         <v>19.2</v>
       </c>
       <c r="F88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9664233459436931</v>
       </c>
       <c r="G88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5314789170422551</v>
       </c>
       <c r="H88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3053513694466237</v>
       </c>
       <c r="I88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7598324545503763E-3</v>
       </c>
       <c r="J88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1472609252769882E-2</v>
       </c>
       <c r="K88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.2039943274175962E-3</v>
       </c>
     </row>
@@ -5182,27 +5196,27 @@
         <v>75.84</v>
       </c>
       <c r="F89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1265859279543382</v>
       </c>
       <c r="G89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6965311199696071</v>
       </c>
       <c r="H89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8855873561896561</v>
       </c>
       <c r="I89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5477261746867015E-3</v>
       </c>
       <c r="J89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1089681145453461E-2</v>
       </c>
       <c r="K89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.4039466003164442E-3</v>
       </c>
     </row>
@@ -5223,27 +5237,27 @@
         <v>88.08</v>
       </c>
       <c r="F90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0292213942539279</v>
       </c>
       <c r="G90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4996870826184039</v>
       </c>
       <c r="H90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9497802083620006</v>
       </c>
       <c r="I90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.0682312062959584E-3</v>
       </c>
       <c r="J90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2167099403618166E-2</v>
       </c>
       <c r="K90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6821644151805639E-3</v>
       </c>
     </row>
@@ -5264,27 +5278,27 @@
         <v>61.68</v>
       </c>
       <c r="F91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1230672437365663</v>
       </c>
       <c r="G91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.766115283221414</v>
       </c>
       <c r="H91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7971289877965526</v>
       </c>
       <c r="I91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5317443885354736E-3</v>
       </c>
       <c r="J91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.521610540191505E-3</v>
       </c>
       <c r="K91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0807386736904606E-3</v>
       </c>
     </row>
@@ -5305,27 +5319,27 @@
         <v>11.16</v>
       </c>
       <c r="F92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2099437356849525</v>
       </c>
       <c r="G92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.83758843823551132</v>
       </c>
       <c r="H92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0849335749367162</v>
       </c>
       <c r="I92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.839264866639431E-3</v>
       </c>
       <c r="J92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0612364158865075E-2</v>
       </c>
       <c r="K92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.064890007513613E-3</v>
       </c>
     </row>
@@ -5346,27 +5360,27 @@
         <v>39.6</v>
       </c>
       <c r="F93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5480206949055311</v>
       </c>
       <c r="G93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.44715803134221921</v>
       </c>
       <c r="H93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.608526033577194</v>
       </c>
       <c r="I93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.491754088072437E-3</v>
       </c>
       <c r="J93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.7980816199514757E-3</v>
       </c>
       <c r="K93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5994997486020654E-3</v>
       </c>
     </row>
@@ -5387,27 +5401,27 @@
         <v>70.8</v>
       </c>
       <c r="F94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.418698936226424</v>
       </c>
       <c r="G94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6148972160331345</v>
       </c>
       <c r="H94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8561244442423004</v>
       </c>
       <c r="I94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7620947663370985E-3</v>
       </c>
       <c r="J94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7488412813027876E-2</v>
       </c>
       <c r="K94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.2884970743859787E-3</v>
       </c>
     </row>
@@ -5428,27 +5442,27 @@
         <v>86.76</v>
       </c>
       <c r="F95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4801219726179751</v>
       </c>
       <c r="G95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.651278013998144</v>
       </c>
       <c r="H95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9432966145666548</v>
       </c>
       <c r="I95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8607728250730103E-3</v>
       </c>
       <c r="J95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4837924271164897E-2</v>
       </c>
       <c r="K95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6524834899824411E-3</v>
       </c>
     </row>
@@ -5469,27 +5483,27 @@
         <v>13.08</v>
       </c>
       <c r="F96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1135422799539638</v>
       </c>
       <c r="G96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2504200023088941</v>
       </c>
       <c r="H96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1486026548060935</v>
       </c>
       <c r="I96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.487593772527805E-3</v>
       </c>
       <c r="J96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8665492346702315E-2</v>
       </c>
       <c r="K96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0971838652594501E-3</v>
       </c>
     </row>
@@ -5510,27 +5524,27 @@
         <v>63.48</v>
       </c>
       <c r="F97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2943780355872412</v>
       </c>
       <c r="G97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5901728315963144</v>
       </c>
       <c r="H97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8094250287970342</v>
       </c>
       <c r="I97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.8126768036346997E-3</v>
       </c>
       <c r="J97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8998157711120886E-2</v>
       </c>
       <c r="K97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1215156779208354E-3</v>
       </c>
     </row>
@@ -5551,27 +5565,27 @@
         <v>7.08</v>
       </c>
       <c r="F98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3767958738797157</v>
       </c>
       <c r="G98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.71600334363479923</v>
       </c>
       <c r="H98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.90741136077458617</v>
       </c>
       <c r="I98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.2611886896274827E-3</v>
       </c>
       <c r="J98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.4078046873748607E-3</v>
       </c>
       <c r="K98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.982291860234061E-4</v>
       </c>
     </row>
@@ -5592,27 +5606,27 @@
         <v>26.4</v>
       </c>
       <c r="F99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3480710990798883</v>
       </c>
       <c r="G99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4183012913197455</v>
       </c>
       <c r="H99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4377505628203879</v>
       </c>
       <c r="I99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5206412893934174E-3</v>
       </c>
       <c r="J99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2272490021144179E-2</v>
       </c>
       <c r="K99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3369565493732171E-3</v>
       </c>
     </row>
@@ -5633,27 +5647,27 @@
         <v>61.44</v>
       </c>
       <c r="F100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5423772129021804</v>
       </c>
       <c r="G100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7139942676606439</v>
       </c>
       <c r="H100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7954628943903799</v>
       </c>
       <c r="I100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.6939356989084841E-4</v>
       </c>
       <c r="J100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6093994817506908E-3</v>
       </c>
       <c r="K100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0753131840948484E-3</v>
       </c>
     </row>
@@ -5674,27 +5688,27 @@
         <v>55.08</v>
       </c>
       <c r="F101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2128265861012335</v>
       </c>
       <c r="G101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7079106657131058</v>
       </c>
       <c r="H101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7488080049586023</v>
       </c>
       <c r="I101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.8450606462443857E-3</v>
       </c>
       <c r="J101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0123078316874782E-2</v>
       </c>
       <c r="K101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.9327352980805128E-3</v>
       </c>
     </row>
@@ -5715,27 +5729,27 @@
         <v>59.76</v>
       </c>
       <c r="F102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.427940290264142</v>
       </c>
       <c r="G102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.78958071216442549</v>
       </c>
       <c r="H102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7836177651907488</v>
       </c>
       <c r="I102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6358430002548575E-3</v>
       </c>
       <c r="J102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0089374885383648E-2</v>
       </c>
       <c r="K102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0374176495859251E-3</v>
       </c>
     </row>
@@ -5756,27 +5770,27 @@
         <v>121.08</v>
       </c>
       <c r="F103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5522787579698258</v>
       </c>
       <c r="G103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6489451821656724</v>
       </c>
       <c r="H103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0866445206108053</v>
       </c>
       <c r="I103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.4834448473108546E-4</v>
       </c>
       <c r="J103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5020614259171004E-2</v>
       </c>
       <c r="K103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3575032981992951E-3</v>
       </c>
     </row>
@@ -5797,27 +5811,27 @@
         <v>25.68</v>
       </c>
       <c r="F104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.527939080629463</v>
       </c>
       <c r="G104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1179338350396415</v>
       </c>
       <c r="H104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4261858252445114</v>
       </c>
       <c r="I104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1589909454423498E-3</v>
       </c>
       <c r="J104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5348973889323107E-2</v>
       </c>
       <c r="K104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3233171394714314E-3</v>
       </c>
     </row>
@@ -5838,27 +5852,27 @@
         <v>21.48</v>
       </c>
       <c r="F105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3550298563570466</v>
       </c>
       <c r="G105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3352572564345317</v>
       </c>
       <c r="H105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3517963068970236</v>
       </c>
       <c r="I105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4644158566052552E-3</v>
       </c>
       <c r="J105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.0806074856913687E-2</v>
       </c>
       <c r="K105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.2452632065012863E-3</v>
       </c>
     </row>
@@ -5879,27 +5893,27 @@
         <v>6.36</v>
       </c>
       <c r="F106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4576397138296802</v>
       </c>
       <c r="G106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6249006022044901</v>
       </c>
       <c r="H106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.86687781433749889</v>
       </c>
       <c r="I106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2030430732048211E-3</v>
       </c>
       <c r="J106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6805989232607611E-2</v>
       </c>
       <c r="K106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.8674488332698112E-4</v>
       </c>
     </row>
@@ -5920,27 +5934,27 @@
         <v>70.8</v>
       </c>
       <c r="F107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2213620672035703</v>
       </c>
       <c r="G107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7534298415754228</v>
       </c>
       <c r="H107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8561244442423004</v>
       </c>
       <c r="I107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.8599418632968099E-3</v>
       </c>
       <c r="J107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.4419415460137235E-3</v>
       </c>
       <c r="K107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.2884970743859787E-3</v>
       </c>
     </row>
@@ -5961,27 +5975,27 @@
         <v>35.64</v>
       </c>
       <c r="F108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4913616938342726</v>
       </c>
       <c r="G108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1522883443830565</v>
       </c>
       <c r="H108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5639554649958127</v>
       </c>
       <c r="I108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4062557317927697E-3</v>
       </c>
       <c r="J108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6157215897615283E-2</v>
       </c>
       <c r="K108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5183659231278385E-3</v>
       </c>
     </row>
@@ -6002,27 +6016,27 @@
         <v>27.84</v>
       </c>
       <c r="F109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0393347887380862</v>
       </c>
       <c r="G109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.13353890837021748</v>
       </c>
       <c r="H109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4599952560473914</v>
       </c>
       <c r="I109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.1193372496344154E-3</v>
       </c>
       <c r="J109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.9067618947357039E-3</v>
       </c>
       <c r="K109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.364457620407888E-3</v>
       </c>
     </row>
@@ -6043,27 +6057,27 @@
         <v>30.72</v>
       </c>
       <c r="F110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2232362731029975</v>
       </c>
       <c r="G110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.17026171539495738</v>
       </c>
       <c r="H110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5013331786455661</v>
       </c>
       <c r="I110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1425416707632492E-3</v>
       </c>
       <c r="J110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.9787314216936507E-3</v>
       </c>
       <c r="K110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4203316181492949E-3</v>
       </c>
     </row>
@@ -6084,27 +6098,27 @@
         <v>6.6</v>
       </c>
       <c r="F111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4878168723972296</v>
       </c>
       <c r="G111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5221833176186863</v>
       </c>
       <c r="H111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.88081359228079137</v>
       </c>
       <c r="I111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.743487193125231E-3</v>
       </c>
       <c r="J111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1720315300346234E-2</v>
       </c>
       <c r="K111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9056363080044104E-4</v>
       </c>
     </row>
@@ -6125,27 +6139,27 @@
         <v>67.8</v>
       </c>
       <c r="F112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4345050325020732</v>
       </c>
       <c r="G112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0350292822023681</v>
       </c>
       <c r="H112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8375884382355112</v>
       </c>
       <c r="I112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5433449063408564E-3</v>
       </c>
       <c r="J112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3606488611702893E-2</v>
       </c>
       <c r="K112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.2198904318749242E-3</v>
       </c>
     </row>
@@ -6166,27 +6180,27 @@
         <v>27.84</v>
       </c>
       <c r="F113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4639526817194084</v>
       </c>
       <c r="G113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6683859166900001</v>
       </c>
       <c r="H113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4599952560473914</v>
       </c>
       <c r="I113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1074991545305456E-3</v>
       </c>
       <c r="J113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3458046323483432E-2</v>
       </c>
       <c r="K113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.364457620407888E-3</v>
       </c>
     </row>
@@ -6207,27 +6221,27 @@
         <v>2.88</v>
       </c>
       <c r="F114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3260079677596059</v>
       </c>
       <c r="G114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2895889525425968</v>
       </c>
       <c r="H114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.58883172559420727</v>
       </c>
       <c r="I114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.6706247129139028E-3</v>
       </c>
       <c r="J114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.9686574466950373E-2</v>
       </c>
       <c r="K114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.3242739327275149E-4</v>
       </c>
     </row>
@@ -6248,27 +6262,27 @@
         <v>12.84</v>
       </c>
       <c r="F115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4022957806553165</v>
       </c>
       <c r="G115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4102709642521845</v>
       </c>
       <c r="H115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.141136090120739</v>
       </c>
       <c r="I115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.9729440799169927E-3</v>
       </c>
       <c r="J115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2182253584713006E-2</v>
       </c>
       <c r="K115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.093115040822345E-3</v>
       </c>
     </row>
@@ -6289,27 +6303,27 @@
         <v>41.4</v>
       </c>
       <c r="F116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9769915453061506</v>
       </c>
       <c r="G116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7570922201189325</v>
       </c>
       <c r="H116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6273658565927327</v>
       </c>
       <c r="I116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8101860665342058E-3</v>
       </c>
       <c r="J116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.1699991721793669E-3</v>
       </c>
       <c r="K116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6369945711768863E-3</v>
       </c>
     </row>
@@ -6330,27 +6344,27 @@
         <v>63.24</v>
       </c>
       <c r="F117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9596137110710439</v>
       </c>
       <c r="G117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6334684555795864</v>
       </c>
       <c r="H117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8078055322706246</v>
       </c>
       <c r="I117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7278041867959354E-3</v>
       </c>
       <c r="J117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6191830269008601E-2</v>
       </c>
       <c r="K117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1160704187568871E-3</v>
       </c>
     </row>
@@ -6371,27 +6385,27 @@
         <v>30.72</v>
       </c>
       <c r="F118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2254126728659545</v>
       </c>
       <c r="G118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2591158441850663</v>
       </c>
       <c r="H118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5013331786455661</v>
       </c>
       <c r="I118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.8657567338540475E-3</v>
       </c>
       <c r="J118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8893991149131855E-2</v>
       </c>
       <c r="K118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4203316181492949E-3</v>
       </c>
     </row>
@@ -6412,27 +6426,27 @@
         <v>17.760000000000002</v>
       </c>
       <c r="F119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9669860251179381</v>
       </c>
       <c r="G119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.29225607135647602</v>
       </c>
       <c r="H119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2732328340430457</v>
       </c>
       <c r="I119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7624939077937091E-3</v>
       </c>
       <c r="J119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.2708618601725825E-3</v>
       </c>
       <c r="K119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1783384736072096E-3</v>
       </c>
     </row>
@@ -6453,27 +6467,27 @@
         <v>95.04</v>
       </c>
       <c r="F120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1813861950832174</v>
       </c>
       <c r="G120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.655906418180215</v>
       </c>
       <c r="H120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9824521513849898</v>
       </c>
       <c r="I120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.7633020574169463E-3</v>
       </c>
       <c r="J120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4471240219364832E-2</v>
       </c>
       <c r="K120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8364950730135749E-3</v>
       </c>
     </row>
@@ -6494,27 +6508,27 @@
         <v>26.76</v>
       </c>
       <c r="F121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.38524868240322</v>
       </c>
       <c r="G121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3053513694466237</v>
       </c>
       <c r="H121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4434194617828173</v>
       </c>
       <c r="I121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2783961606521862E-3</v>
       </c>
       <c r="J121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.0085921255172844E-2</v>
       </c>
       <c r="K121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3438041461885533E-3</v>
       </c>
     </row>
@@ -6535,27 +6549,27 @@
         <v>55.44</v>
       </c>
       <c r="F122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2318771873464782</v>
       </c>
       <c r="G122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5206145218782359</v>
       </c>
       <c r="H122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7515870050823101</v>
       </c>
       <c r="I122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.8732826491549108E-3</v>
       </c>
       <c r="J122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1758393927306795E-2</v>
       </c>
       <c r="K122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.9407361011028589E-3</v>
       </c>
     </row>
@@ -6576,27 +6590,27 @@
         <v>60.48</v>
       </c>
       <c r="F123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.372175286115064</v>
       </c>
       <c r="G123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4320066872695982</v>
       </c>
       <c r="H123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7887338588277075</v>
       </c>
       <c r="I123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2650850554040487E-3</v>
       </c>
       <c r="J123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2391832061491642E-2</v>
       </c>
       <c r="K123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0536403178419414E-3</v>
       </c>
     </row>
@@ -6617,27 +6631,27 @@
         <v>18.72</v>
       </c>
       <c r="F124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4310419453358856</v>
       </c>
       <c r="G124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.58883172559420727</v>
       </c>
       <c r="H124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2949069106051925</v>
       </c>
       <c r="I124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5924116958924194E-3</v>
       </c>
       <c r="J124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.5044463016414693E-3</v>
       </c>
       <c r="K124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1954069809076899E-3</v>
       </c>
     </row>
@@ -6658,27 +6672,27 @@
         <v>14.88</v>
       </c>
       <c r="F125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1723693767638421</v>
       </c>
       <c r="G125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6285932558512592</v>
       </c>
       <c r="H125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2008504980910775</v>
       </c>
       <c r="I125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.733215091366298E-3</v>
       </c>
       <c r="J125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6544514776915022E-2</v>
       </c>
       <c r="K125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1279905985412612E-3</v>
       </c>
     </row>
@@ -6699,27 +6713,27 @@
         <v>89.04</v>
       </c>
       <c r="F126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4415380387021606</v>
       </c>
       <c r="G126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5994463757252757</v>
       </c>
       <c r="H126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9544354863284823</v>
       </c>
       <c r="I126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.441992205247428E-3</v>
       </c>
       <c r="J126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8462765558628802E-2</v>
       </c>
       <c r="K126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.7036787540263467E-3</v>
       </c>
     </row>
@@ -6740,27 +6754,27 @@
         <v>31.08</v>
       </c>
       <c r="F127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0238283925348863</v>
       </c>
       <c r="G127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1806992012960347</v>
       </c>
       <c r="H127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5062343596121259</v>
       </c>
       <c r="I127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.0410665420373979E-3</v>
       </c>
       <c r="J127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6858810317388423E-2</v>
       </c>
       <c r="K127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4273960335450212E-3</v>
       </c>
     </row>
@@ -6781,27 +6795,27 @@
         <v>60.72</v>
       </c>
       <c r="F128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0153597554092142</v>
       </c>
       <c r="G128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6783362467321801</v>
       </c>
       <c r="H128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7904259173911106</v>
       </c>
       <c r="I128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0351501054625767E-3</v>
       </c>
       <c r="J128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2629976349880476E-2</v>
       </c>
       <c r="K128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0590540677402503E-3</v>
       </c>
     </row>
@@ -6822,27 +6836,27 @@
         <v>11.04</v>
       </c>
       <c r="F129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.987844950171298</v>
       </c>
       <c r="G129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0806264869218056</v>
       </c>
       <c r="I129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8626600360328672E-3</v>
       </c>
       <c r="J129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.6934392699467531E-3</v>
       </c>
       <c r="K129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0628911774130125E-3</v>
       </c>
     </row>
@@ -6863,27 +6877,27 @@
         <v>3.84</v>
       </c>
       <c r="F130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4238354585114261</v>
       </c>
       <c r="G130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7767011839884108</v>
       </c>
       <c r="H130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.68484536164441245</v>
       </c>
       <c r="I130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6925260651047439E-3</v>
       </c>
       <c r="J130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.8037582542633135E-3</v>
       </c>
       <c r="K130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.4721414452918565E-4</v>
       </c>
     </row>
@@ -6904,27 +6918,27 @@
         <v>51.72</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="14">LOG10(C131+1)</f>
+        <f t="shared" ref="F131:F194" si="15">LOG10(C131+1)</f>
         <v>1.8604577954234711</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G194" si="15">LOG10(D131+1)</f>
+        <f t="shared" ref="G131:G194" si="16">LOG10(D131+1)</f>
         <v>1.1875207208364631</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H194" si="16">LOG10(E131+1)</f>
+        <f t="shared" ref="H131:H194" si="17">LOG10(E131+1)</f>
         <v>1.7219754015859534</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="17">_xlfn.NORM.DIST(C131,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
+        <f t="shared" ref="I131:I194" si="18">_xlfn.NORM.DIST(C131,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
         <v>2.3049834326161938E-3</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="18">_xlfn.NORM.DIST(D131,AVERAGE($D$2:$D$201),_xlfn.STDEV.P($D$2:$D$201),FALSE)</f>
+        <f t="shared" ref="J131:J194" si="19">_xlfn.NORM.DIST(D131,AVERAGE($D$2:$D$201),_xlfn.STDEV.P($D$2:$D$201),FALSE)</f>
         <v>1.7031128688773569E-2</v>
       </c>
       <c r="K131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.8585334861310867E-3</v>
       </c>
     </row>
@@ -6945,27 +6959,27 @@
         <v>10.44</v>
       </c>
       <c r="F132">
+        <f t="shared" si="15"/>
+        <v>0.26481782300953643</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="16"/>
+        <v>1.6859207921945354</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="17"/>
+        <v>1.0584260244570054</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="18"/>
+        <v>9.015062564071447E-4</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="19"/>
+        <v>1.1990566708007598E-2</v>
+      </c>
+      <c r="K132">
         <f t="shared" si="14"/>
-        <v>0.26481782300953643</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="15"/>
-        <v>1.6859207921945354</v>
-      </c>
-      <c r="H132">
-        <f t="shared" si="16"/>
-        <v>1.0584260244570054</v>
-      </c>
-      <c r="I132">
-        <f t="shared" si="17"/>
-        <v>9.015062564071447E-4</v>
-      </c>
-      <c r="J132">
-        <f t="shared" si="18"/>
-        <v>1.1990566708007598E-2</v>
-      </c>
-      <c r="K132">
-        <f t="shared" si="13"/>
         <v>1.0529316289899747E-3</v>
       </c>
     </row>
@@ -6986,27 +7000,27 @@
         <v>51.6</v>
       </c>
       <c r="F133">
+        <f t="shared" si="15"/>
+        <v>2.5041173021364291</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="16"/>
+        <v>0.651278013998144</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="17"/>
+        <v>1.7209857441537391</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="18"/>
+        <v>1.4986276037821213E-3</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="19"/>
+        <v>8.9098876475473127E-3</v>
+      </c>
+      <c r="K133">
         <f t="shared" si="14"/>
-        <v>2.5041173021364291</v>
-      </c>
-      <c r="G133">
-        <f t="shared" si="15"/>
-        <v>0.651278013998144</v>
-      </c>
-      <c r="H133">
-        <f t="shared" si="16"/>
-        <v>1.7209857441537391</v>
-      </c>
-      <c r="I133">
-        <f t="shared" si="17"/>
-        <v>1.4986276037821213E-3</v>
-      </c>
-      <c r="J133">
-        <f t="shared" si="18"/>
-        <v>8.9098876475473127E-3</v>
-      </c>
-      <c r="K133">
-        <f t="shared" si="13"/>
         <v>1.8559000790083684E-3</v>
       </c>
     </row>
@@ -7027,27 +7041,27 @@
         <v>2.52</v>
       </c>
       <c r="F134">
+        <f t="shared" si="15"/>
+        <v>1.0445397603924109</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="16"/>
+        <v>1.5268559871258747</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="17"/>
+        <v>0.54654266347813107</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="18"/>
+        <v>1.046983620492151E-3</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="19"/>
+        <v>2.160055152061972E-2</v>
+      </c>
+      <c r="K134">
         <f t="shared" si="14"/>
-        <v>1.0445397603924109</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="15"/>
-        <v>1.5268559871258747</v>
-      </c>
-      <c r="H134">
-        <f t="shared" si="16"/>
-        <v>0.54654266347813107</v>
-      </c>
-      <c r="I134">
-        <f t="shared" si="17"/>
-        <v>1.046983620492151E-3</v>
-      </c>
-      <c r="J134">
-        <f t="shared" si="18"/>
-        <v>2.160055152061972E-2</v>
-      </c>
-      <c r="K134">
-        <f t="shared" si="13"/>
         <v>9.2692121409919555E-4</v>
       </c>
     </row>
@@ -7068,27 +7082,27 @@
         <v>54.12</v>
       </c>
       <c r="F135">
+        <f t="shared" si="15"/>
+        <v>2.4228523724161661</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="16"/>
+        <v>1.6148972160331345</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="17"/>
+        <v>1.7413092088995694</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="18"/>
+        <v>2.705960892960573E-3</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="19"/>
+        <v>1.7488412813027876E-2</v>
+      </c>
+      <c r="K135">
         <f t="shared" si="14"/>
-        <v>2.4228523724161661</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="15"/>
-        <v>1.6148972160331345</v>
-      </c>
-      <c r="H135">
-        <f t="shared" si="16"/>
-        <v>1.7413092088995694</v>
-      </c>
-      <c r="I135">
-        <f t="shared" si="17"/>
-        <v>2.705960892960573E-3</v>
-      </c>
-      <c r="J135">
-        <f t="shared" si="18"/>
-        <v>1.7488412813027876E-2</v>
-      </c>
-      <c r="K135">
-        <f t="shared" si="13"/>
         <v>1.911446030124169E-3</v>
       </c>
     </row>
@@ -7109,27 +7123,27 @@
         <v>78.72</v>
       </c>
       <c r="F136">
+        <f t="shared" si="15"/>
+        <v>1.655906418180215</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="16"/>
+        <v>1.6750447359558929</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="17"/>
+        <v>1.9015672900284499</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="18"/>
+        <v>1.6977393307575147E-3</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="19"/>
+        <v>1.2905488001689565E-2</v>
+      </c>
+      <c r="K136">
         <f t="shared" si="14"/>
-        <v>1.655906418180215</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="15"/>
-        <v>1.6750447359558929</v>
-      </c>
-      <c r="H136">
-        <f t="shared" si="16"/>
-        <v>1.9015672900284499</v>
-      </c>
-      <c r="I136">
-        <f t="shared" si="17"/>
-        <v>1.6977393307575147E-3</v>
-      </c>
-      <c r="J136">
-        <f t="shared" si="18"/>
-        <v>1.2905488001689565E-2</v>
-      </c>
-      <c r="K136">
-        <f t="shared" si="13"/>
         <v>2.4698455801874727E-3</v>
       </c>
     </row>
@@ -7150,27 +7164,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F137">
+        <f t="shared" si="15"/>
+        <v>1.7705574748509951</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="16"/>
+        <v>1.7589118923979734</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="17"/>
+        <v>1.0492180226701815</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="18"/>
+        <v>1.996990524372902E-3</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="19"/>
+        <v>6.0367072196592809E-3</v>
+      </c>
+      <c r="K137">
         <f t="shared" si="14"/>
-        <v>1.7705574748509951</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="15"/>
-        <v>1.7589118923979734</v>
-      </c>
-      <c r="H137">
-        <f t="shared" si="16"/>
-        <v>1.0492180226701815</v>
-      </c>
-      <c r="I137">
-        <f t="shared" si="17"/>
-        <v>1.996990524372902E-3</v>
-      </c>
-      <c r="J137">
-        <f t="shared" si="18"/>
-        <v>6.0367072196592809E-3</v>
-      </c>
-      <c r="K137">
-        <f t="shared" si="13"/>
         <v>1.0489639774778185E-3</v>
       </c>
     </row>
@@ -7191,27 +7205,27 @@
         <v>11.16</v>
       </c>
       <c r="F138">
+        <f t="shared" si="15"/>
+        <v>1.5013331786455661</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="16"/>
+        <v>1.6794278966121188</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="17"/>
+        <v>1.0849335749367162</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="18"/>
+        <v>1.4203316181492949E-3</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="19"/>
+        <v>1.2538305693582741E-2</v>
+      </c>
+      <c r="K138">
         <f t="shared" si="14"/>
-        <v>1.5013331786455661</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="15"/>
-        <v>1.6794278966121188</v>
-      </c>
-      <c r="H138">
-        <f t="shared" si="16"/>
-        <v>1.0849335749367162</v>
-      </c>
-      <c r="I138">
-        <f t="shared" si="17"/>
-        <v>1.4203316181492949E-3</v>
-      </c>
-      <c r="J138">
-        <f t="shared" si="18"/>
-        <v>1.2538305693582741E-2</v>
-      </c>
-      <c r="K138">
-        <f t="shared" si="13"/>
         <v>1.064890007513613E-3</v>
       </c>
     </row>
@@ -7232,27 +7246,27 @@
         <v>71.64</v>
       </c>
       <c r="F139">
+        <f t="shared" si="15"/>
+        <v>2.5177763292739561</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="16"/>
+        <v>1.5524248457040855</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="17"/>
+        <v>1.8611758355130288</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="18"/>
+        <v>1.3004145205553937E-3</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="19"/>
+        <v>2.0772151342002228E-2</v>
+      </c>
+      <c r="K139">
         <f t="shared" si="14"/>
-        <v>2.5177763292739561</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="15"/>
-        <v>1.5524248457040855</v>
-      </c>
-      <c r="H139">
-        <f t="shared" si="16"/>
-        <v>1.8611758355130288</v>
-      </c>
-      <c r="I139">
-        <f t="shared" si="17"/>
-        <v>1.3004145205553937E-3</v>
-      </c>
-      <c r="J139">
-        <f t="shared" si="18"/>
-        <v>2.0772151342002228E-2</v>
-      </c>
-      <c r="K139">
-        <f t="shared" si="13"/>
         <v>2.3077316697810144E-3</v>
       </c>
     </row>
@@ -7273,27 +7287,27 @@
         <v>24.6</v>
       </c>
       <c r="F140">
+        <f t="shared" si="15"/>
+        <v>1.7209857441537391</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="16"/>
+        <v>1.5062343596121259</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="17"/>
+        <v>1.4082399653118496</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="18"/>
+        <v>1.8559000790083684E-3</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="19"/>
+        <v>2.2058681818863675E-2</v>
+      </c>
+      <c r="K140">
         <f t="shared" si="14"/>
-        <v>1.7209857441537391</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="15"/>
-        <v>1.5062343596121259</v>
-      </c>
-      <c r="H140">
-        <f t="shared" si="16"/>
-        <v>1.4082399653118496</v>
-      </c>
-      <c r="I140">
-        <f t="shared" si="17"/>
-        <v>1.8559000790083684E-3</v>
-      </c>
-      <c r="J140">
-        <f t="shared" si="18"/>
-        <v>2.2058681818863675E-2</v>
-      </c>
-      <c r="K140">
-        <f t="shared" si="13"/>
         <v>1.3029985529238652E-3</v>
       </c>
     </row>
@@ -7314,27 +7328,27 @@
         <v>2.04</v>
       </c>
       <c r="F141">
+        <f t="shared" si="15"/>
+        <v>2.3480710990798883</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="16"/>
+        <v>1.7298125071609356</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="17"/>
+        <v>0.48287358360875376</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="18"/>
+        <v>3.5206412893934174E-3</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="19"/>
+        <v>8.29642041508309E-3</v>
+      </c>
+      <c r="K141">
         <f t="shared" si="14"/>
-        <v>2.3480710990798883</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="15"/>
-        <v>1.7298125071609356</v>
-      </c>
-      <c r="H141">
-        <f t="shared" si="16"/>
-        <v>0.48287358360875376</v>
-      </c>
-      <c r="I141">
-        <f t="shared" si="17"/>
-        <v>3.5206412893934174E-3</v>
-      </c>
-      <c r="J141">
-        <f t="shared" si="18"/>
-        <v>8.29642041508309E-3</v>
-      </c>
-      <c r="K141">
-        <f t="shared" si="13"/>
         <v>9.1961263317301705E-4</v>
       </c>
     </row>
@@ -7355,27 +7369,27 @@
         <v>15.48</v>
       </c>
       <c r="F142">
+        <f t="shared" si="15"/>
+        <v>1.9497802083620006</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="16"/>
+        <v>1.3304137733491908</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="17"/>
+        <v>1.216957207361097</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="18"/>
+        <v>2.6821644151805639E-3</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="19"/>
+        <v>2.0693741324716432E-2</v>
+      </c>
+      <c r="K142">
         <f t="shared" si="14"/>
-        <v>1.9497802083620006</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="15"/>
-        <v>1.3304137733491908</v>
-      </c>
-      <c r="H142">
-        <f t="shared" si="16"/>
-        <v>1.216957207361097</v>
-      </c>
-      <c r="I142">
-        <f t="shared" si="17"/>
-        <v>2.6821644151805639E-3</v>
-      </c>
-      <c r="J142">
-        <f t="shared" si="18"/>
-        <v>2.0693741324716432E-2</v>
-      </c>
-      <c r="K142">
-        <f t="shared" si="13"/>
         <v>1.1383729335239922E-3</v>
       </c>
     </row>
@@ -7396,27 +7410,27 @@
         <v>90.72</v>
       </c>
       <c r="F143">
+        <f t="shared" si="15"/>
+        <v>2.3681752745493765</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="16"/>
+        <v>1.6382895354142568</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="17"/>
+        <v>1.9624640460579013</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="18"/>
+        <v>3.3465816596542626E-3</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="19"/>
+        <v>1.5835074183672745E-2</v>
+      </c>
+      <c r="K143">
         <f t="shared" si="14"/>
-        <v>2.3681752745493765</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="15"/>
-        <v>1.6382895354142568</v>
-      </c>
-      <c r="H143">
-        <f t="shared" si="16"/>
-        <v>1.9624640460579013</v>
-      </c>
-      <c r="I143">
-        <f t="shared" si="17"/>
-        <v>3.3465816596542626E-3</v>
-      </c>
-      <c r="J143">
-        <f t="shared" si="18"/>
-        <v>1.5835074183672745E-2</v>
-      </c>
-      <c r="K143">
-        <f t="shared" si="13"/>
         <v>2.7411692847524793E-3</v>
       </c>
     </row>
@@ -7437,27 +7451,27 @@
         <v>45.48</v>
       </c>
       <c r="F144">
+        <f t="shared" si="15"/>
+        <v>2.42422807069598</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="16"/>
+        <v>1.6110857334148727</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="17"/>
+        <v>1.6672661193822742</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="18"/>
+        <v>2.6871451817898511E-3</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="19"/>
+        <v>1.7738017795355766E-2</v>
+      </c>
+      <c r="K144">
         <f t="shared" si="14"/>
-        <v>2.42422807069598</v>
-      </c>
-      <c r="G144">
-        <f t="shared" si="15"/>
-        <v>1.6110857334148727</v>
-      </c>
-      <c r="H144">
-        <f t="shared" si="16"/>
-        <v>1.6672661193822742</v>
-      </c>
-      <c r="I144">
-        <f t="shared" si="17"/>
-        <v>2.6871451817898511E-3</v>
-      </c>
-      <c r="J144">
-        <f t="shared" si="18"/>
-        <v>1.7738017795355766E-2</v>
-      </c>
-      <c r="K144">
-        <f t="shared" si="13"/>
         <v>1.7233106850466156E-3</v>
       </c>
     </row>
@@ -7478,27 +7492,27 @@
         <v>41.28</v>
       </c>
       <c r="F145">
+        <f t="shared" si="15"/>
+        <v>2.102159183243685</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="16"/>
+        <v>0.89431606268443842</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="17"/>
+        <v>1.6261349786353887</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="18"/>
+        <v>3.4333720733378112E-3</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="19"/>
+        <v>1.1323061626291807E-2</v>
+      </c>
+      <c r="K145">
         <f t="shared" si="14"/>
-        <v>2.102159183243685</v>
-      </c>
-      <c r="G145">
-        <f t="shared" si="15"/>
-        <v>0.89431606268443842</v>
-      </c>
-      <c r="H145">
-        <f t="shared" si="16"/>
-        <v>1.6261349786353887</v>
-      </c>
-      <c r="I145">
-        <f t="shared" si="17"/>
-        <v>3.4333720733378112E-3</v>
-      </c>
-      <c r="J145">
-        <f t="shared" si="18"/>
-        <v>1.1323061626291807E-2</v>
-      </c>
-      <c r="K145">
-        <f t="shared" si="13"/>
         <v>1.6344833969722573E-3</v>
       </c>
     </row>
@@ -7519,27 +7533,27 @@
         <v>46.68</v>
       </c>
       <c r="F146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.066102196766773</v>
       </c>
       <c r="G146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.2732328340430457</v>
       </c>
       <c r="H146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6783362467321801</v>
       </c>
       <c r="I146">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.2547698805542977E-3</v>
       </c>
       <c r="J146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.9263429947266E-2</v>
       </c>
       <c r="K146">
-        <f t="shared" ref="K146:K201" si="19">_xlfn.NORM.DIST(E146,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
+        <f t="shared" ref="K146:K201" si="20">_xlfn.NORM.DIST(E146,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
         <v>1.7490286997430297E-3</v>
       </c>
     </row>
@@ -7560,27 +7574,27 @@
         <v>10.8</v>
       </c>
       <c r="F147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.2288108450113557</v>
       </c>
       <c r="G147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5158738437116791</v>
       </c>
       <c r="H147">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0718820073061255</v>
       </c>
       <c r="I147">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8699872624332098E-3</v>
       </c>
       <c r="J147">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.1081799144844605E-3</v>
       </c>
       <c r="K147">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.058900434335136E-3</v>
       </c>
     </row>
@@ -7601,27 +7615,27 @@
         <v>10.44</v>
       </c>
       <c r="F148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.4610781352168565</v>
       </c>
       <c r="G148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98944981766669182</v>
       </c>
       <c r="H148">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0584260244570054</v>
       </c>
       <c r="I148">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.1510968667367843E-3</v>
       </c>
       <c r="J148">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2777748682515997E-2</v>
       </c>
       <c r="K148">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0529316289899747E-3</v>
       </c>
     </row>
@@ -7642,27 +7656,27 @@
         <v>53.16</v>
       </c>
       <c r="F149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.4666303981813926</v>
       </c>
       <c r="G149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.7767011839884108</v>
       </c>
       <c r="H149">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.7336786556770878</v>
       </c>
       <c r="I149">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.0667738529238705E-3</v>
       </c>
       <c r="J149">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.8037582542633135E-3</v>
       </c>
       <c r="K149">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.8902263102652242E-3</v>
       </c>
     </row>
@@ -7683,27 +7697,27 @@
         <v>14.28</v>
       </c>
       <c r="F150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6683859166900001</v>
       </c>
       <c r="G150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.6933751510251853</v>
       </c>
       <c r="H150">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.1841233542396712</v>
       </c>
       <c r="I150">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.7258759662299135E-3</v>
       </c>
       <c r="J150">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.1358050018329624E-2</v>
       </c>
       <c r="K150">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1176648549604793E-3</v>
       </c>
     </row>
@@ -7724,27 +7738,27 @@
         <v>24.72</v>
       </c>
       <c r="F151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7375106906734761</v>
       </c>
       <c r="G151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.5046067706419537</v>
       </c>
       <c r="H151">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.4102709642521845</v>
       </c>
       <c r="I151">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9008272935713735E-3</v>
       </c>
       <c r="J151">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.2087251347961988E-2</v>
       </c>
       <c r="K151">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.3052477978086768E-3</v>
       </c>
     </row>
@@ -7765,27 +7779,27 @@
         <v>44.4</v>
       </c>
       <c r="F152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.5287110684168512</v>
       </c>
       <c r="G152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.2474822606770544</v>
       </c>
       <c r="H152">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.657055852857104</v>
       </c>
       <c r="I152">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.1484976888795355E-3</v>
       </c>
       <c r="J152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.8588241754896623E-2</v>
       </c>
       <c r="K152">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7002897302056739E-3</v>
       </c>
     </row>
@@ -7806,27 +7820,27 @@
         <v>58.44</v>
       </c>
       <c r="F153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.1649473726218416</v>
       </c>
       <c r="G153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0445397603924109</v>
       </c>
       <c r="H153">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.7740788007525188</v>
       </c>
       <c r="I153">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.7065948219658297E-3</v>
       </c>
       <c r="J153">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.379089453223294E-2</v>
       </c>
       <c r="K153">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.0077522176423276E-3</v>
       </c>
     </row>
@@ -7847,27 +7861,27 @@
         <v>17.04</v>
       </c>
       <c r="F154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3767958738797157</v>
       </c>
       <c r="G154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.4617985575251093</v>
       </c>
       <c r="H154">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.2562365332059229</v>
       </c>
       <c r="I154">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.2611886896274827E-3</v>
       </c>
       <c r="J154">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.2477102805790471E-2</v>
       </c>
       <c r="K154">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1656304658801801E-3</v>
       </c>
     </row>
@@ -7888,27 +7902,27 @@
         <v>45.24</v>
       </c>
       <c r="F155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3150462249223449</v>
       </c>
       <c r="G155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.6869935662646784</v>
       </c>
       <c r="H155">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6650178254124726</v>
       </c>
       <c r="I155">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.7293528508059847E-3</v>
       </c>
       <c r="J155">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.1899727363595137E-2</v>
       </c>
       <c r="K155">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7181845276221343E-3</v>
       </c>
     </row>
@@ -7929,27 +7943,27 @@
         <v>11.4</v>
       </c>
       <c r="F156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3547996852632904</v>
       </c>
       <c r="G156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.420285884941918</v>
       </c>
       <c r="H156">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0934216851622351</v>
       </c>
       <c r="I156">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4663440220497163E-3</v>
       </c>
       <c r="J156">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.229255781424842E-2</v>
       </c>
       <c r="K156">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0688945792352005E-3</v>
       </c>
     </row>
@@ -7970,27 +7984,27 @@
         <v>6.84</v>
       </c>
       <c r="F157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.77232170672291978</v>
       </c>
       <c r="G157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1737688231366501</v>
       </c>
       <c r="H157">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.89431606268443842</v>
       </c>
       <c r="I157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.6402915651325194E-4</v>
       </c>
       <c r="J157">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6685183258308842E-2</v>
       </c>
       <c r="K157">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9439173359360455E-4</v>
       </c>
     </row>
@@ -8011,27 +8025,27 @@
         <v>60.6</v>
       </c>
       <c r="F158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.0556840649194132</v>
       </c>
       <c r="G158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.7259116322950483</v>
       </c>
       <c r="H158">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.7895807121644254</v>
       </c>
       <c r="I158">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.2021310174830783E-3</v>
       </c>
       <c r="J158">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.6162590666970448E-3</v>
       </c>
       <c r="K158">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.0563468130999083E-3</v>
       </c>
     </row>
@@ -8052,27 +8066,27 @@
         <v>29.16</v>
       </c>
       <c r="F159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.2571023326591639</v>
       </c>
       <c r="G159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.40823996531184958</v>
       </c>
       <c r="H159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.4794313371977363</v>
       </c>
       <c r="I159">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8799883099932659E-3</v>
       </c>
       <c r="J159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.6454107107680183E-3</v>
       </c>
       <c r="K159">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.3899238423742985E-3</v>
       </c>
     </row>
@@ -8093,27 +8107,27 @@
         <v>54.24</v>
       </c>
       <c r="F160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1772478362556233</v>
       </c>
       <c r="G160">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.655906418180215</v>
       </c>
       <c r="H160">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.7422536699065936</v>
       </c>
       <c r="I160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.1135504442913637E-3</v>
       </c>
       <c r="J160">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4471240219364832E-2</v>
       </c>
       <c r="K160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.9141034454535539E-3</v>
       </c>
     </row>
@@ -8134,27 +8148,27 @@
         <v>41.52</v>
       </c>
       <c r="F161">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.2015063670532382</v>
       </c>
       <c r="G161">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3632358044836939</v>
       </c>
       <c r="H161">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6285932558512592</v>
       </c>
       <c r="I161">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8201997808314432E-3</v>
       </c>
       <c r="J161">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.1410599150603265E-2</v>
       </c>
       <c r="K161">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6395073680175946E-3</v>
       </c>
     </row>
@@ -8175,27 +8189,27 @@
         <v>36.840000000000003</v>
       </c>
       <c r="F162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3180633349627615</v>
       </c>
       <c r="G162">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3564083270389813</v>
       </c>
       <c r="H162">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5779511277297551</v>
       </c>
       <c r="I162">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.7142157481834864E-3</v>
       </c>
       <c r="J162">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.1270968038150748E-2</v>
       </c>
       <c r="K162">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.5427493535246591E-3</v>
       </c>
     </row>
@@ -8216,27 +8230,27 @@
         <v>59.16</v>
       </c>
       <c r="F163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.0163646794562942</v>
       </c>
       <c r="G163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.643057683751453</v>
       </c>
       <c r="H163">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.7793078275835859</v>
       </c>
       <c r="I163">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.0036122780652918E-3</v>
       </c>
       <c r="J163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.5474852326720466E-2</v>
       </c>
       <c r="K163">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.0239208045813727E-3</v>
       </c>
     </row>
@@ -8257,27 +8271,27 @@
         <v>30.72</v>
       </c>
       <c r="F164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3561788855533754</v>
       </c>
       <c r="G164">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3564083270389813</v>
       </c>
       <c r="H164">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5013331786455661</v>
       </c>
       <c r="I164">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4547204475639439E-3</v>
       </c>
       <c r="J164">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.1270968038150748E-2</v>
       </c>
       <c r="K164">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.4203316181492949E-3</v>
       </c>
     </row>
@@ -8298,27 +8312,27 @@
         <v>8.8800000000000008</v>
       </c>
       <c r="F165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.2949069106051923</v>
       </c>
       <c r="G165">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.6547539332529302</v>
       </c>
       <c r="H165">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.9947569445876282</v>
       </c>
       <c r="I165">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8109764724561196E-3</v>
       </c>
       <c r="J165">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4563051692208805E-2</v>
       </c>
       <c r="K165">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0273074786660318E-3</v>
       </c>
     </row>
@@ -8339,27 +8353,27 @@
         <v>6.48</v>
       </c>
       <c r="F166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.1511859180860733</v>
       </c>
       <c r="G166">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.2704459080179626</v>
       </c>
       <c r="H166">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.87390159786446142</v>
       </c>
       <c r="I166">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.653318110278934E-3</v>
       </c>
       <c r="J166">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.9190723776160722E-2</v>
       </c>
       <c r="K166">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.8865308730038625E-4</v>
       </c>
     </row>
@@ -8380,27 +8394,27 @@
         <v>101.76</v>
       </c>
       <c r="F167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.4508646923797661</v>
       </c>
       <c r="G167">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.70586371228391931</v>
       </c>
       <c r="H167">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.0118240955943087</v>
       </c>
       <c r="I167">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.3045712083972765E-3</v>
       </c>
       <c r="J167">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.3239928102412904E-3</v>
       </c>
       <c r="K167">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.9809225100674492E-3</v>
       </c>
     </row>
@@ -8421,27 +8435,27 @@
         <v>25.92</v>
       </c>
       <c r="F168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.3517963068970236</v>
       </c>
       <c r="G168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.6638892986226614</v>
       </c>
       <c r="H168">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.4300750555519393</v>
       </c>
       <c r="I168">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2452632065012863E-3</v>
       </c>
       <c r="J168">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.3826849151494121E-2</v>
       </c>
       <c r="K168">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.3278553202137379E-3</v>
       </c>
     </row>
@@ -8462,27 +8476,27 @@
         <v>23.28</v>
       </c>
       <c r="F169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3964783222021033</v>
       </c>
       <c r="G169">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.85973856619714695</v>
       </c>
       <c r="H169">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.38524868240322</v>
       </c>
       <c r="I169">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.0431749274309095E-3</v>
       </c>
       <c r="J169">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0877221848905919E-2</v>
       </c>
       <c r="K169">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2783961606521862E-3</v>
       </c>
     </row>
@@ -8503,27 +8517,27 @@
         <v>69.12</v>
       </c>
       <c r="F170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.4141038892581892</v>
       </c>
       <c r="G170">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.4671639659690903</v>
       </c>
       <c r="H170">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.8458419074217574</v>
       </c>
       <c r="I170">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.8229633887828175E-3</v>
       </c>
       <c r="J170">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.2463832351660249E-2</v>
       </c>
       <c r="K170">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.2500564673326477E-3</v>
       </c>
     </row>
@@ -8544,27 +8558,27 @@
         <v>7.68</v>
       </c>
       <c r="F171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.5342292372487547</v>
       </c>
       <c r="G171">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1373541113707328</v>
       </c>
       <c r="H171">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.93851972517649185</v>
       </c>
       <c r="I171">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0746170009459913E-3</v>
       </c>
       <c r="J171">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.5800095330763545E-2</v>
       </c>
       <c r="K171">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0078636828805198E-3</v>
       </c>
     </row>
@@ -8585,27 +8599,27 @@
         <v>22.08</v>
       </c>
       <c r="F172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7853298350107671</v>
       </c>
       <c r="G172">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1737688231366501</v>
       </c>
       <c r="H172">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.3632358044836939</v>
       </c>
       <c r="I172">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.0428220579857582E-3</v>
       </c>
       <c r="J172">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6685183258308842E-2</v>
       </c>
       <c r="K172">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.256253816176279E-3</v>
       </c>
     </row>
@@ -8626,27 +8640,27 @@
         <v>56.88</v>
       </c>
       <c r="F173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.2975416678181597</v>
       </c>
       <c r="G173">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.4163075870598825</v>
       </c>
       <c r="H173">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.762528522447</v>
       </c>
       <c r="I173">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8021751167313157E-3</v>
       </c>
       <c r="J173">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.225142276363528E-2</v>
       </c>
       <c r="K173">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.9728297807608611E-3</v>
       </c>
     </row>
@@ -8667,27 +8681,27 @@
         <v>20.399999999999999</v>
       </c>
       <c r="F174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.3895204658463773</v>
       </c>
       <c r="G174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.4000196350651586</v>
       </c>
       <c r="H174">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.3304137733491908</v>
       </c>
       <c r="I174">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2828502539674028E-3</v>
       </c>
       <c r="J174">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.2047276455144239E-2</v>
       </c>
       <c r="K174">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.225616565768587E-3</v>
       </c>
     </row>
@@ -8708,27 +8722,27 @@
         <v>15.36</v>
       </c>
       <c r="F175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3076671547325676</v>
       </c>
       <c r="G175">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.97863694838447435</v>
       </c>
       <c r="H175">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.2137832993353042</v>
       </c>
       <c r="I175">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.7631377329641522E-3</v>
       </c>
       <c r="J175">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2594213842965822E-2</v>
       </c>
       <c r="K175">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1362919482353904E-3</v>
       </c>
     </row>
@@ -8749,27 +8763,27 @@
         <v>15.72</v>
       </c>
       <c r="F176">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.427940290264142</v>
       </c>
       <c r="G176">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.70586371228391931</v>
       </c>
       <c r="H176">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.2232362731029975</v>
       </c>
       <c r="I176">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.6358430002548575E-3</v>
       </c>
       <c r="J176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.3239928102412904E-3</v>
       </c>
       <c r="K176">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1425416707632492E-3</v>
       </c>
     </row>
@@ -8790,27 +8804,27 @@
         <v>50.16</v>
       </c>
       <c r="F177">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.5228092526036705</v>
       </c>
       <c r="G177">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.7758288144646124</v>
       </c>
       <c r="H177">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.7089305358066162</v>
       </c>
       <c r="I177">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2296406594794267E-3</v>
       </c>
       <c r="J177">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.8610574679922389E-3</v>
       </c>
       <c r="K177">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.8243946924218811E-3</v>
       </c>
     </row>
@@ -8831,27 +8845,27 @@
         <v>24.36</v>
       </c>
       <c r="F178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.4757873719746417</v>
       </c>
       <c r="G178">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.571009672309305</v>
       </c>
       <c r="H178">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.404149249209695</v>
       </c>
       <c r="I178">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9270071404226402E-3</v>
       </c>
       <c r="J178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.9981203410408207E-2</v>
       </c>
       <c r="K178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2985063728572952E-3</v>
       </c>
     </row>
@@ -8872,27 +8886,27 @@
         <v>42.24</v>
       </c>
       <c r="F179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3122620059833472</v>
       </c>
       <c r="G179">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0153597554092142</v>
       </c>
       <c r="H179">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6358856852812727</v>
       </c>
       <c r="I179">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.7426371219658563E-3</v>
       </c>
       <c r="J179">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.3237775201274645E-2</v>
       </c>
       <c r="K179">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6546179789423364E-3</v>
       </c>
     </row>
@@ -8913,27 +8927,27 @@
         <v>28.44</v>
       </c>
       <c r="F180">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.5224963978787209</v>
       </c>
       <c r="G180">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.57518784492766106</v>
       </c>
       <c r="H180">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.4689378056654612</v>
       </c>
       <c r="I180">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2339994172735973E-3</v>
       </c>
       <c r="J180">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.4244436279672531E-3</v>
       </c>
       <c r="K180">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.376002956381882E-3</v>
       </c>
     </row>
@@ -8954,27 +8968,27 @@
         <v>21.12</v>
       </c>
       <c r="F181">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3004215573830722</v>
       </c>
       <c r="G181">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1139433523068367</v>
       </c>
       <c r="H181">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.3447851226326606</v>
       </c>
       <c r="I181">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.7919198883769093E-3</v>
       </c>
       <c r="J181">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.5258213851112448E-2</v>
       </c>
       <c r="K181">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2386947808832398E-3</v>
       </c>
     </row>
@@ -8995,27 +9009,27 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="F182">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.2762779369046622</v>
       </c>
       <c r="G182">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.61489721603313463</v>
       </c>
       <c r="H182">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0398105541483504</v>
       </c>
       <c r="I182">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8579002238393802E-3</v>
       </c>
       <c r="J182">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.6655492502670135E-3</v>
       </c>
       <c r="K182">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0450055773956581E-3</v>
       </c>
     </row>
@@ -9036,27 +9050,27 @@
         <v>32.880000000000003</v>
       </c>
       <c r="F183">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.4202858849419178</v>
       </c>
       <c r="G183">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.87390159786446142</v>
       </c>
       <c r="H183">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5299434016586693</v>
       </c>
       <c r="I183">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.7407687399714016E-3</v>
       </c>
       <c r="J183">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.1054927991876773E-2</v>
       </c>
       <c r="K183">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.4629793534360125E-3</v>
       </c>
     </row>
@@ -9077,27 +9091,27 @@
         <v>35.64</v>
       </c>
       <c r="F184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.8353100008690626</v>
       </c>
       <c r="G184">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.89431606268443842</v>
       </c>
       <c r="H184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5639554649958127</v>
       </c>
       <c r="I184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.211670422508227E-3</v>
       </c>
       <c r="J184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.1323061626291807E-2</v>
       </c>
       <c r="K184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.5183659231278385E-3</v>
       </c>
     </row>
@@ -9118,27 +9132,27 @@
         <v>86.16</v>
       </c>
       <c r="F185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.5392266950429949</v>
       </c>
       <c r="G185">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.7209857441537391</v>
       </c>
       <c r="H185">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.9403172215742179</v>
       </c>
       <c r="I185">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0095073482124517E-3</v>
       </c>
       <c r="J185">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.0241625773373486E-3</v>
       </c>
       <c r="K185">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.6389570262272161E-3</v>
       </c>
     </row>
@@ -9159,27 +9173,27 @@
         <v>36</v>
       </c>
       <c r="F186">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.4850965013556423</v>
       </c>
       <c r="G186">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.4242280706959798</v>
       </c>
       <c r="H186">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.568201724066995</v>
       </c>
       <c r="I186">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.7848812652180865E-3</v>
       </c>
       <c r="J186">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.2329684195891483E-2</v>
       </c>
       <c r="K186">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.5256620494673008E-3</v>
       </c>
     </row>
@@ -9200,27 +9214,27 @@
         <v>23.52</v>
       </c>
       <c r="F187">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3926969532596658</v>
       </c>
       <c r="G187">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.7413092088995694</v>
       </c>
       <c r="H187">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.3895204658463773</v>
       </c>
       <c r="I187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.0874536655501987E-3</v>
       </c>
       <c r="J187">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.3739513704909783E-3</v>
       </c>
       <c r="K187">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2828502539674028E-3</v>
       </c>
     </row>
@@ -9241,27 +9255,27 @@
         <v>31.92</v>
       </c>
       <c r="F188">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.2263420871636308</v>
       </c>
       <c r="G188">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.54654266347813107</v>
       </c>
       <c r="H188">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5174598265402321</v>
       </c>
       <c r="I188">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8669733261738233E-3</v>
       </c>
       <c r="J188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.265555022257863E-3</v>
       </c>
       <c r="K188">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.4439477047479086E-3</v>
       </c>
     </row>
@@ -9282,27 +9296,27 @@
         <v>21.84</v>
       </c>
       <c r="F189">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3623316518700257</v>
       </c>
       <c r="G189">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.5494937132150131</v>
       </c>
       <c r="H189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.3586960995738104</v>
       </c>
       <c r="I189">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4008284027831188E-3</v>
       </c>
       <c r="J189">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0882255730354373E-2</v>
       </c>
       <c r="K189">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2518511003779718E-3</v>
       </c>
     </row>
@@ -9323,27 +9337,27 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="F190">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.5368108659915416</v>
       </c>
       <c r="G190">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.2474822606770544</v>
       </c>
       <c r="H190">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.73559889969817993</v>
       </c>
       <c r="I190">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0407606248960194E-3</v>
       </c>
       <c r="J190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.8588241754896623E-2</v>
       </c>
       <c r="K190">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.5653231963245414E-4</v>
       </c>
     </row>
@@ -9364,27 +9378,27 @@
         <v>28.08</v>
       </c>
       <c r="F191">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.3699576073460531</v>
       </c>
       <c r="G191">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1908917169221696</v>
       </c>
       <c r="H191">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.4635944021870002</v>
       </c>
       <c r="I191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2628740252680767E-3</v>
       </c>
       <c r="J191">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.7116773139444996E-2</v>
       </c>
       <c r="K191">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.3690696846768808E-3</v>
       </c>
     </row>
@@ -9405,27 +9419,27 @@
         <v>6.96</v>
       </c>
       <c r="F192">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6848453616444126</v>
       </c>
       <c r="G192">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.7017406324372124</v>
       </c>
       <c r="H192">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.90091306773766899</v>
       </c>
       <c r="I192">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.7645278824170859E-3</v>
       </c>
       <c r="J192">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0646675344522434E-2</v>
       </c>
       <c r="K192">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9630929146595501E-4</v>
       </c>
     </row>
@@ -9446,27 +9460,27 @@
         <v>7.2</v>
       </c>
       <c r="F193">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.9618954736678504</v>
       </c>
       <c r="G193">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1448854182871424</v>
       </c>
       <c r="H193">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.91381385238371671</v>
       </c>
       <c r="I193">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.7384985045762699E-3</v>
       </c>
       <c r="J193">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.5979119193766506E-2</v>
       </c>
       <c r="K193">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0001514165281914E-3</v>
       </c>
     </row>
@@ -9487,27 +9501,27 @@
         <v>37.92</v>
       </c>
       <c r="F194">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.3352572564345317</v>
       </c>
       <c r="G194">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.77232170672291978</v>
       </c>
       <c r="H194">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5901728315963144</v>
       </c>
       <c r="I194">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2299672642760247E-3</v>
       </c>
       <c r="J194">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.9172080265298515E-3</v>
       </c>
       <c r="K194">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.564846619120036E-3</v>
       </c>
     </row>
@@ -9528,27 +9542,27 @@
         <v>4.32</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F201" si="20">LOG10(C195+1)</f>
+        <f t="shared" ref="F195:F201" si="21">LOG10(C195+1)</f>
         <v>2.3035416269488893</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G201" si="21">LOG10(D195+1)</f>
+        <f t="shared" ref="G195:G201" si="22">LOG10(D195+1)</f>
         <v>1.7109631189952756</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H201" si="22">LOG10(E195+1)</f>
+        <f t="shared" ref="H195:H201" si="23">LOG10(E195+1)</f>
         <v>0.72591163229504818</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I201" si="23">_xlfn.NORM.DIST(C195,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
+        <f t="shared" ref="I195:I201" si="24">_xlfn.NORM.DIST(C195,AVERAGE($C$2:$C$201),_xlfn.STDEV.P($C$2:$C$201),FALSE)</f>
         <v>3.7800525803351375E-3</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J201" si="24">_xlfn.NORM.DIST(D195,AVERAGE($D$2:$D$201),_xlfn.STDEV.P($D$2:$D$201),FALSE)</f>
+        <f t="shared" ref="J195:J201" si="25">_xlfn.NORM.DIST(D195,AVERAGE($D$2:$D$201),_xlfn.STDEV.P($D$2:$D$201),FALSE)</f>
         <v>9.8649250338202939E-3</v>
       </c>
       <c r="K195">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.5466398329922234E-4</v>
       </c>
     </row>
@@ -9569,27 +9583,27 @@
         <v>7.2</v>
       </c>
       <c r="F196">
+        <f t="shared" si="21"/>
+        <v>2.2568139245808925</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="22"/>
+        <v>1.6406801532776651</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="23"/>
+        <v>0.91381385238371671</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="24"/>
+        <v>3.8801315486894044E-3</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="25"/>
+        <v>1.5655358830848037E-2</v>
+      </c>
+      <c r="K196">
         <f t="shared" si="20"/>
-        <v>2.2568139245808925</v>
-      </c>
-      <c r="G196">
-        <f t="shared" si="21"/>
-        <v>1.6406801532776651</v>
-      </c>
-      <c r="H196">
-        <f t="shared" si="22"/>
-        <v>0.91381385238371671</v>
-      </c>
-      <c r="I196">
-        <f t="shared" si="23"/>
-        <v>3.8801315486894044E-3</v>
-      </c>
-      <c r="J196">
-        <f t="shared" si="24"/>
-        <v>1.5655358830848037E-2</v>
-      </c>
-      <c r="K196">
-        <f t="shared" si="19"/>
         <v>1.0001514165281914E-3</v>
       </c>
     </row>
@@ -9610,27 +9624,27 @@
         <v>16.559999999999999</v>
       </c>
       <c r="F197">
+        <f t="shared" si="21"/>
+        <v>1.6706168864003255</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="22"/>
+        <v>0.73559889969817993</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="23"/>
+        <v>1.2445245115700838</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="24"/>
+        <v>1.7310109094517225E-3</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="25"/>
+        <v>9.5763815205989842E-3</v>
+      </c>
+      <c r="K197">
         <f t="shared" si="20"/>
-        <v>1.6706168864003255</v>
-      </c>
-      <c r="G197">
-        <f t="shared" si="21"/>
-        <v>0.73559889969817993</v>
-      </c>
-      <c r="H197">
-        <f t="shared" si="22"/>
-        <v>1.2445245115700838</v>
-      </c>
-      <c r="I197">
-        <f t="shared" si="23"/>
-        <v>1.7310109094517225E-3</v>
-      </c>
-      <c r="J197">
-        <f t="shared" si="24"/>
-        <v>9.5763815205989842E-3</v>
-      </c>
-      <c r="K197">
-        <f t="shared" si="19"/>
         <v>1.1572031349724493E-3</v>
       </c>
     </row>
@@ -9651,27 +9665,27 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="F198">
+        <f t="shared" si="21"/>
+        <v>2.0570572086374224</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="22"/>
+        <v>0.83758843823551132</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="23"/>
+        <v>1.0301947853567512</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="24"/>
+        <v>3.2090796445731163E-3</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="25"/>
+        <v>1.0612364158865075E-2</v>
+      </c>
+      <c r="K198">
         <f t="shared" si="20"/>
-        <v>2.0570572086374224</v>
-      </c>
-      <c r="G198">
-        <f t="shared" si="21"/>
-        <v>0.83758843823551132</v>
-      </c>
-      <c r="H198">
-        <f t="shared" si="22"/>
-        <v>1.0301947853567512</v>
-      </c>
-      <c r="I198">
-        <f t="shared" si="23"/>
-        <v>3.2090796445731163E-3</v>
-      </c>
-      <c r="J198">
-        <f t="shared" si="24"/>
-        <v>1.0612364158865075E-2</v>
-      </c>
-      <c r="K198">
-        <f t="shared" si="19"/>
         <v>1.0410564369285084E-3</v>
       </c>
     </row>
@@ -9692,27 +9706,27 @@
         <v>7.68</v>
       </c>
       <c r="F199">
+        <f t="shared" si="21"/>
+        <v>2.3291944150884509</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="22"/>
+        <v>1.0849335749367162</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="23"/>
+        <v>0.93851972517649185</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="24"/>
+        <v>3.651605698620477E-3</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="25"/>
+        <v>1.4619014219203377E-2</v>
+      </c>
+      <c r="K199">
         <f t="shared" si="20"/>
-        <v>2.3291944150884509</v>
-      </c>
-      <c r="G199">
-        <f t="shared" si="21"/>
-        <v>1.0849335749367162</v>
-      </c>
-      <c r="H199">
-        <f t="shared" si="22"/>
-        <v>0.93851972517649185</v>
-      </c>
-      <c r="I199">
-        <f t="shared" si="23"/>
-        <v>3.651605698620477E-3</v>
-      </c>
-      <c r="J199">
-        <f t="shared" si="24"/>
-        <v>1.4619014219203377E-2</v>
-      </c>
-      <c r="K199">
-        <f t="shared" si="19"/>
         <v>1.0078636828805198E-3</v>
       </c>
     </row>
@@ -9733,27 +9747,27 @@
         <v>79.44</v>
       </c>
       <c r="F200">
+        <f t="shared" si="21"/>
+        <v>2.5331617369606012</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="22"/>
+        <v>1.7109631189952756</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="23"/>
+        <v>1.9054720619247043</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="24"/>
+        <v>1.0887512590897544E-3</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="25"/>
+        <v>9.8649250338202939E-3</v>
+      </c>
+      <c r="K200">
         <f t="shared" si="20"/>
-        <v>2.5331617369606012</v>
-      </c>
-      <c r="G200">
-        <f t="shared" si="21"/>
-        <v>1.7109631189952756</v>
-      </c>
-      <c r="H200">
-        <f t="shared" si="22"/>
-        <v>1.9054720619247043</v>
-      </c>
-      <c r="I200">
-        <f t="shared" si="23"/>
-        <v>1.0887512590897544E-3</v>
-      </c>
-      <c r="J200">
-        <f t="shared" si="24"/>
-        <v>9.8649250338202939E-3</v>
-      </c>
-      <c r="K200">
-        <f t="shared" si="19"/>
         <v>2.4862955524278139E-3</v>
       </c>
     </row>
@@ -9774,27 +9788,27 @@
         <v>10.44</v>
       </c>
       <c r="F201">
+        <f t="shared" si="21"/>
+        <v>2.4464128876388558</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="22"/>
+        <v>1.0538464268522527</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="23"/>
+        <v>1.0584260244570054</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="24"/>
+        <v>2.3705486527351763E-3</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="25"/>
+        <v>1.3975243211751453E-2</v>
+      </c>
+      <c r="K201">
         <f t="shared" si="20"/>
-        <v>2.4464128876388558</v>
-      </c>
-      <c r="G201">
-        <f t="shared" si="21"/>
-        <v>1.0538464268522527</v>
-      </c>
-      <c r="H201">
-        <f t="shared" si="22"/>
-        <v>1.0584260244570054</v>
-      </c>
-      <c r="I201">
-        <f t="shared" si="23"/>
-        <v>2.3705486527351763E-3</v>
-      </c>
-      <c r="J201">
-        <f t="shared" si="24"/>
-        <v>1.3975243211751453E-2</v>
-      </c>
-      <c r="K201">
-        <f t="shared" si="19"/>
         <v>1.0529316289899747E-3</v>
       </c>
     </row>
